--- a/simulated_data/10nodes_50len_trial9.xlsx
+++ b/simulated_data/10nodes_50len_trial9.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.80567256341445</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.80567313054958</v>
+        <v>25.71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.405</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22.295</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32.165</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-34.18374848420165</v>
+        <v>25.71</v>
       </c>
       <c r="C3" t="n">
-        <v>-34.18374852485523</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.215</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47.335</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38.945</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48.33</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-16.44619737647554</v>
+        <v>31.58</v>
       </c>
       <c r="C4" t="n">
-        <v>-16.44619707540392</v>
+        <v>48.215</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.285</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.98</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35.985</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41.11499999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38.46</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-18.74884773746777</v>
+        <v>19.18</v>
       </c>
       <c r="C5" t="n">
-        <v>-18.74884885137383</v>
+        <v>25.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.285</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40.135</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46.235</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.985</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33.605</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.545</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.755147358360396</v>
+        <v>29.405</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.755146613759639</v>
+        <v>47.335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.98</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.135</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46.275</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.18</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-9.717038730026443</v>
+        <v>17.665</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.717037983260269</v>
+        <v>41.17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.985</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46.235</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41.925</v>
+      </c>
+      <c r="I7" t="n">
+        <v>38.435</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35.905</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.44296431009496</v>
+        <v>32.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.44296447251367</v>
+        <v>38.945</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.985</v>
+      </c>
+      <c r="F8" t="n">
+        <v>46.275</v>
+      </c>
+      <c r="G8" t="n">
+        <v>41.925</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.395</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43.36499999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36.145</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.47451961032849</v>
+        <v>27.57</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.47451909159477</v>
+        <v>43.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.605</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>38.435</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.395</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>28.115</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.785</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-11.99233157103296</v>
+        <v>22.295</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.99233072100431</v>
+        <v>41.17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>41.11499999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H10" t="n">
+        <v>43.36499999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28.115</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.835</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>32.165</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>48.33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.545</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>35.905</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36.145</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.785</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.835</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.93</v>
+        <v>38.79</v>
       </c>
       <c r="D2" t="n">
-        <v>28.98</v>
+        <v>26.28</v>
       </c>
       <c r="E2" t="n">
-        <v>22.7</v>
+        <v>17.25</v>
       </c>
       <c r="F2" t="n">
-        <v>24.63</v>
+        <v>19.29</v>
       </c>
       <c r="G2" t="n">
-        <v>19.96</v>
+        <v>20.97</v>
       </c>
       <c r="H2" t="n">
-        <v>29.24</v>
+        <v>26.96</v>
       </c>
       <c r="I2" t="n">
-        <v>26.69</v>
+        <v>31.74</v>
       </c>
       <c r="J2" t="n">
-        <v>22.89</v>
+        <v>22.14</v>
       </c>
       <c r="K2" t="n">
-        <v>32.28</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.93</v>
+        <v>38.79</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.72</v>
+        <v>38.68</v>
       </c>
       <c r="E3" t="n">
-        <v>27.02</v>
+        <v>40.38</v>
       </c>
       <c r="F3" t="n">
-        <v>45.93</v>
+        <v>24.11</v>
       </c>
       <c r="G3" t="n">
-        <v>38.23</v>
+        <v>31.94</v>
       </c>
       <c r="H3" t="n">
-        <v>39.5</v>
+        <v>42.64</v>
       </c>
       <c r="I3" t="n">
-        <v>45.68</v>
+        <v>27.19</v>
       </c>
       <c r="J3" t="n">
-        <v>42.99</v>
+        <v>27.42</v>
       </c>
       <c r="K3" t="n">
-        <v>53.98</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.98</v>
+        <v>26.28</v>
       </c>
       <c r="C4" t="n">
-        <v>41.72</v>
+        <v>38.68</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.58</v>
+        <v>10.18</v>
       </c>
       <c r="F4" t="n">
-        <v>37.96</v>
+        <v>35.19</v>
       </c>
       <c r="G4" t="n">
-        <v>42.43</v>
+        <v>42.04</v>
       </c>
       <c r="H4" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="I4" t="n">
-        <v>14.8</v>
+        <v>14.09</v>
       </c>
       <c r="J4" t="n">
-        <v>40.95</v>
+        <v>40.58</v>
       </c>
       <c r="K4" t="n">
-        <v>30.78</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.7</v>
+        <v>17.25</v>
       </c>
       <c r="C5" t="n">
-        <v>27.02</v>
+        <v>40.38</v>
       </c>
       <c r="D5" t="n">
-        <v>16.58</v>
+        <v>10.18</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>41.91</v>
+        <v>30.43</v>
       </c>
       <c r="G5" t="n">
-        <v>41.57</v>
+        <v>35.71</v>
       </c>
       <c r="H5" t="n">
-        <v>13.15</v>
+        <v>9.82</v>
       </c>
       <c r="I5" t="n">
-        <v>26.85</v>
+        <v>21.21</v>
       </c>
       <c r="J5" t="n">
-        <v>42.63</v>
+        <v>35.21</v>
       </c>
       <c r="K5" t="n">
-        <v>41</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.63</v>
+        <v>19.29</v>
       </c>
       <c r="C6" t="n">
-        <v>45.93</v>
+        <v>24.11</v>
       </c>
       <c r="D6" t="n">
-        <v>37.96</v>
+        <v>35.19</v>
       </c>
       <c r="E6" t="n">
-        <v>41.91</v>
+        <v>30.43</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.15</v>
+        <v>8.98</v>
       </c>
       <c r="H6" t="n">
-        <v>41.07</v>
+        <v>37.83</v>
       </c>
       <c r="I6" t="n">
-        <v>25.44</v>
+        <v>32.27</v>
       </c>
       <c r="J6" t="n">
-        <v>5.99</v>
+        <v>5.66</v>
       </c>
       <c r="K6" t="n">
-        <v>16.36</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.96</v>
+        <v>20.97</v>
       </c>
       <c r="C7" t="n">
-        <v>38.23</v>
+        <v>31.94</v>
       </c>
       <c r="D7" t="n">
-        <v>42.43</v>
+        <v>42.04</v>
       </c>
       <c r="E7" t="n">
-        <v>41.57</v>
+        <v>35.71</v>
       </c>
       <c r="F7" t="n">
-        <v>12.15</v>
+        <v>8.98</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.47</v>
+        <v>44.18</v>
       </c>
       <c r="I7" t="n">
-        <v>32.92</v>
+        <v>40.78</v>
       </c>
       <c r="J7" t="n">
-        <v>6.44</v>
+        <v>4.56</v>
       </c>
       <c r="K7" t="n">
-        <v>27.87</v>
+        <v>28.82</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.24</v>
+        <v>26.96</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5</v>
+        <v>42.64</v>
       </c>
       <c r="D8" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="E8" t="n">
-        <v>13.15</v>
+        <v>9.82</v>
       </c>
       <c r="F8" t="n">
-        <v>41.07</v>
+        <v>37.83</v>
       </c>
       <c r="G8" t="n">
-        <v>44.47</v>
+        <v>44.18</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19.15</v>
+        <v>18.07</v>
       </c>
       <c r="J8" t="n">
-        <v>43.58</v>
+        <v>43.05</v>
       </c>
       <c r="K8" t="n">
-        <v>35.05</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.69</v>
+        <v>31.74</v>
       </c>
       <c r="C9" t="n">
-        <v>45.68</v>
+        <v>27.19</v>
       </c>
       <c r="D9" t="n">
-        <v>14.8</v>
+        <v>14.09</v>
       </c>
       <c r="E9" t="n">
-        <v>26.85</v>
+        <v>21.21</v>
       </c>
       <c r="F9" t="n">
-        <v>25.44</v>
+        <v>32.27</v>
       </c>
       <c r="G9" t="n">
-        <v>32.92</v>
+        <v>40.78</v>
       </c>
       <c r="H9" t="n">
-        <v>19.15</v>
+        <v>18.07</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>29.69</v>
+        <v>37.92</v>
       </c>
       <c r="K9" t="n">
-        <v>15.98</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.89</v>
+        <v>22.14</v>
       </c>
       <c r="C10" t="n">
-        <v>42.99</v>
+        <v>27.42</v>
       </c>
       <c r="D10" t="n">
-        <v>40.95</v>
+        <v>40.58</v>
       </c>
       <c r="E10" t="n">
-        <v>42.63</v>
+        <v>35.21</v>
       </c>
       <c r="F10" t="n">
-        <v>5.99</v>
+        <v>5.66</v>
       </c>
       <c r="G10" t="n">
-        <v>6.44</v>
+        <v>4.56</v>
       </c>
       <c r="H10" t="n">
-        <v>43.58</v>
+        <v>43.05</v>
       </c>
       <c r="I10" t="n">
-        <v>29.69</v>
+        <v>37.92</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26</v>
+        <v>25.13</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.28</v>
+        <v>27.8</v>
       </c>
       <c r="C11" t="n">
-        <v>53.98</v>
+        <v>14.11</v>
       </c>
       <c r="D11" t="n">
-        <v>30.78</v>
+        <v>24.78</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>26.41</v>
       </c>
       <c r="F11" t="n">
-        <v>16.36</v>
+        <v>19.84</v>
       </c>
       <c r="G11" t="n">
-        <v>27.87</v>
+        <v>28.82</v>
       </c>
       <c r="H11" t="n">
-        <v>35.05</v>
+        <v>28.67</v>
       </c>
       <c r="I11" t="n">
-        <v>15.98</v>
+        <v>15.12</v>
       </c>
       <c r="J11" t="n">
-        <v>22.26</v>
+        <v>25.13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8512219424607674</v>
+        <v>-9.474995396998073</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.4906179970861</v>
+        <v>3.601688186149153</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.68548600883666</v>
+        <v>25.9102188150362</v>
       </c>
       <c r="C3" t="n">
-        <v>-28.50845710806603</v>
+        <v>-12.30007794398704</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-16.04490984309698</v>
+        <v>8.866003056467651</v>
       </c>
       <c r="C4" t="n">
-        <v>13.19281708245906</v>
+        <v>22.42488124338536</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-21.65835362798119</v>
+        <v>-0.4363238661010491</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.408063775072952</v>
+        <v>18.29634369649239</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.07109972025473</v>
+        <v>1.800659607561287</v>
       </c>
       <c r="C6" t="n">
-        <v>1.510773318414805</v>
+        <v>-12.05022024274532</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.09210057833346</v>
+        <v>-5.680630850038223</v>
       </c>
       <c r="C7" t="n">
-        <v>-10.59758020778061</v>
+        <v>-17.021546223624</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.97675251547928</v>
+        <v>6.21948505585091</v>
       </c>
       <c r="C8" t="n">
-        <v>10.63366725384008</v>
+        <v>25.52083453726167</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.375825152130172</v>
+        <v>20.39803353749765</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19079791844231</v>
+        <v>14.32473153586264</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.92089462566889</v>
+        <v>-1.119586369825162</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.419265119952622</v>
+        <v>-16.9036140787681</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.50845416572797</v>
+        <v>18.00606688055308</v>
       </c>
       <c r="C11" t="n">
-        <v>16.89592863480205</v>
+        <v>-0.6091304429979233</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.12</v>
+        <v>15.68</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3</v>
+        <v>2.16</v>
       </c>
       <c r="E2" t="n">
-        <v>13.5</v>
+        <v>5.68</v>
       </c>
       <c r="F2" t="n">
-        <v>13.5</v>
+        <v>14.64</v>
       </c>
       <c r="G2" t="n">
-        <v>16.54</v>
+        <v>9.44</v>
       </c>
       <c r="H2" t="n">
-        <v>28.73</v>
+        <v>6.65</v>
       </c>
       <c r="I2" t="n">
-        <v>18.72</v>
+        <v>7.55</v>
       </c>
       <c r="J2" t="n">
-        <v>13.93</v>
+        <v>7.26</v>
       </c>
       <c r="K2" t="n">
-        <v>34.39</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.12</v>
+        <v>15.68</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>46.58</v>
+        <v>13.52</v>
       </c>
       <c r="E3" t="n">
-        <v>31.35</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>15.24</v>
+        <v>30.32</v>
       </c>
       <c r="G3" t="n">
-        <v>42.66</v>
+        <v>25.12</v>
       </c>
       <c r="H3" t="n">
-        <v>48.32</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>34.39</v>
+        <v>23.23</v>
       </c>
       <c r="J3" t="n">
-        <v>27.86</v>
+        <v>22.94</v>
       </c>
       <c r="K3" t="n">
-        <v>19.16</v>
+        <v>36.22</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3</v>
+        <v>2.16</v>
       </c>
       <c r="C4" t="n">
-        <v>46.58</v>
+        <v>13.52</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>39.62</v>
+        <v>3.51</v>
       </c>
       <c r="F4" t="n">
-        <v>31.35</v>
+        <v>16.8</v>
       </c>
       <c r="G4" t="n">
-        <v>26.56</v>
+        <v>11.61</v>
       </c>
       <c r="H4" t="n">
-        <v>2.61</v>
+        <v>4.49</v>
       </c>
       <c r="I4" t="n">
-        <v>12.19</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>41.36</v>
+        <v>9.42</v>
       </c>
       <c r="K4" t="n">
-        <v>42.23</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5</v>
+        <v>5.68</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>39.62</v>
+        <v>3.51</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.94</v>
+        <v>20.31</v>
       </c>
       <c r="G5" t="n">
-        <v>18.28</v>
+        <v>15.12</v>
       </c>
       <c r="H5" t="n">
-        <v>39.62</v>
+        <v>0.98</v>
       </c>
       <c r="I5" t="n">
-        <v>31.78</v>
+        <v>13.22</v>
       </c>
       <c r="J5" t="n">
-        <v>4.35</v>
+        <v>12.93</v>
       </c>
       <c r="K5" t="n">
-        <v>44.41</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5</v>
+        <v>14.64</v>
       </c>
       <c r="C6" t="n">
-        <v>15.24</v>
+        <v>30.32</v>
       </c>
       <c r="D6" t="n">
-        <v>31.35</v>
+        <v>16.8</v>
       </c>
       <c r="E6" t="n">
-        <v>23.94</v>
+        <v>20.31</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.6</v>
+        <v>5.19</v>
       </c>
       <c r="H6" t="n">
-        <v>33.09</v>
+        <v>21.29</v>
       </c>
       <c r="I6" t="n">
-        <v>19.59</v>
+        <v>7.09</v>
       </c>
       <c r="J6" t="n">
-        <v>22.2</v>
+        <v>7.38</v>
       </c>
       <c r="K6" t="n">
-        <v>20.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.54</v>
+        <v>9.44</v>
       </c>
       <c r="C7" t="n">
-        <v>42.66</v>
+        <v>25.12</v>
       </c>
       <c r="D7" t="n">
-        <v>26.56</v>
+        <v>11.61</v>
       </c>
       <c r="E7" t="n">
-        <v>18.28</v>
+        <v>15.12</v>
       </c>
       <c r="F7" t="n">
-        <v>29.6</v>
+        <v>5.19</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.69</v>
+        <v>16.09</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
-        <v>22.2</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="n">
-        <v>49.63</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.73</v>
+        <v>6.65</v>
       </c>
       <c r="C8" t="n">
-        <v>48.32</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>2.61</v>
+        <v>4.49</v>
       </c>
       <c r="E8" t="n">
-        <v>39.62</v>
+        <v>0.98</v>
       </c>
       <c r="F8" t="n">
-        <v>33.09</v>
+        <v>21.29</v>
       </c>
       <c r="G8" t="n">
-        <v>25.69</v>
+        <v>16.09</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="J8" t="n">
-        <v>41.36</v>
+        <v>13.91</v>
       </c>
       <c r="K8" t="n">
-        <v>44.41</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.72</v>
+        <v>7.55</v>
       </c>
       <c r="C9" t="n">
-        <v>34.39</v>
+        <v>23.23</v>
       </c>
       <c r="D9" t="n">
-        <v>12.19</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>31.78</v>
+        <v>13.22</v>
       </c>
       <c r="F9" t="n">
-        <v>19.59</v>
+        <v>7.09</v>
       </c>
       <c r="G9" t="n">
-        <v>23.94</v>
+        <v>1.89</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>32.65</v>
+        <v>0.29</v>
       </c>
       <c r="K9" t="n">
-        <v>31.78</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.93</v>
+        <v>7.26</v>
       </c>
       <c r="C10" t="n">
-        <v>27.86</v>
+        <v>22.94</v>
       </c>
       <c r="D10" t="n">
-        <v>41.36</v>
+        <v>9.42</v>
       </c>
       <c r="E10" t="n">
-        <v>4.35</v>
+        <v>12.93</v>
       </c>
       <c r="F10" t="n">
-        <v>22.2</v>
+        <v>7.38</v>
       </c>
       <c r="G10" t="n">
-        <v>22.2</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>41.36</v>
+        <v>13.91</v>
       </c>
       <c r="I10" t="n">
-        <v>32.65</v>
+        <v>0.29</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41.79</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.39</v>
+        <v>20.53</v>
       </c>
       <c r="C11" t="n">
-        <v>19.16</v>
+        <v>36.22</v>
       </c>
       <c r="D11" t="n">
-        <v>42.23</v>
+        <v>22.7</v>
       </c>
       <c r="E11" t="n">
-        <v>44.41</v>
+        <v>26.21</v>
       </c>
       <c r="F11" t="n">
-        <v>20.9</v>
+        <v>5.9</v>
       </c>
       <c r="G11" t="n">
-        <v>49.63</v>
+        <v>11.09</v>
       </c>
       <c r="H11" t="n">
-        <v>44.41</v>
+        <v>27.19</v>
       </c>
       <c r="I11" t="n">
-        <v>31.78</v>
+        <v>12.99</v>
       </c>
       <c r="J11" t="n">
-        <v>41.79</v>
+        <v>13.28</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09664510974060524</v>
+        <v>-13.52011711609031</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.120929969224376</v>
+        <v>-13.52011711608885</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4437726927028037</v>
+        <v>-24.60797834359767</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.379402915975573</v>
+        <v>-24.60797834360179</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1269211863867303</v>
+        <v>-15.05033123197357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5259306390861203</v>
+        <v>-15.05033123197124</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2748351975379263</v>
+        <v>-17.53385361788866</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3732001355958808</v>
+        <v>-17.5338536178953</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2144605012418633</v>
+        <v>-3.170758312630968</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1136559406469098</v>
+        <v>-3.17075831262304</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4527882404112619</v>
+        <v>-6.844077345562791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01119002765528429</v>
+        <v>-6.844077345551351</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1836331876736564</v>
+        <v>-18.22349959552859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5318909702969028</v>
+        <v>-18.22349959553072</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.020078137476604</v>
+        <v>-8.184027820183369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2928733990717123</v>
+        <v>-8.184027820181729</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1922463193710008</v>
+        <v>-8.388080194996274</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4217362309517252</v>
+        <v>-8.388080194985935</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6827842071996568</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0151422739601838</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.43</v>
+        <v>21.93</v>
       </c>
       <c r="D2" t="n">
-        <v>7.02</v>
+        <v>28.98</v>
       </c>
       <c r="E2" t="n">
-        <v>10.58</v>
+        <v>22.7</v>
       </c>
       <c r="F2" t="n">
-        <v>18.04</v>
+        <v>24.63</v>
       </c>
       <c r="G2" t="n">
-        <v>13.73</v>
+        <v>19.96</v>
       </c>
       <c r="H2" t="n">
-        <v>12.28</v>
+        <v>29.24</v>
       </c>
       <c r="I2" t="n">
-        <v>10.11</v>
+        <v>26.69</v>
       </c>
       <c r="J2" t="n">
-        <v>7.65</v>
+        <v>22.89</v>
       </c>
       <c r="K2" t="n">
-        <v>29.11</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.43</v>
+        <v>21.93</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21.41</v>
+        <v>41.72</v>
       </c>
       <c r="E3" t="n">
-        <v>17.85</v>
+        <v>27.02</v>
       </c>
       <c r="F3" t="n">
-        <v>46.47</v>
+        <v>45.93</v>
       </c>
       <c r="G3" t="n">
-        <v>42.16</v>
+        <v>38.23</v>
       </c>
       <c r="H3" t="n">
-        <v>16.16</v>
+        <v>39.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.55</v>
+        <v>45.68</v>
       </c>
       <c r="J3" t="n">
-        <v>36.08</v>
+        <v>42.99</v>
       </c>
       <c r="K3" t="n">
-        <v>57.54</v>
+        <v>53.98</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.02</v>
+        <v>28.98</v>
       </c>
       <c r="C4" t="n">
-        <v>21.41</v>
+        <v>41.72</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.56</v>
+        <v>16.58</v>
       </c>
       <c r="F4" t="n">
-        <v>25.06</v>
+        <v>37.96</v>
       </c>
       <c r="G4" t="n">
-        <v>20.75</v>
+        <v>42.43</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>4.69</v>
       </c>
       <c r="I4" t="n">
-        <v>17.14</v>
+        <v>14.8</v>
       </c>
       <c r="J4" t="n">
-        <v>14.67</v>
+        <v>40.95</v>
       </c>
       <c r="K4" t="n">
-        <v>36.13</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.58</v>
+        <v>22.7</v>
       </c>
       <c r="C5" t="n">
-        <v>17.85</v>
+        <v>27.02</v>
       </c>
       <c r="D5" t="n">
-        <v>3.56</v>
+        <v>16.58</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>28.62</v>
+        <v>41.91</v>
       </c>
       <c r="G5" t="n">
-        <v>24.31</v>
+        <v>41.57</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69</v>
+        <v>13.15</v>
       </c>
       <c r="I5" t="n">
-        <v>20.7</v>
+        <v>26.85</v>
       </c>
       <c r="J5" t="n">
-        <v>18.23</v>
+        <v>42.63</v>
       </c>
       <c r="K5" t="n">
-        <v>39.69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.04</v>
+        <v>24.63</v>
       </c>
       <c r="C6" t="n">
-        <v>46.47</v>
+        <v>45.93</v>
       </c>
       <c r="D6" t="n">
-        <v>25.06</v>
+        <v>37.96</v>
       </c>
       <c r="E6" t="n">
-        <v>28.62</v>
+        <v>41.91</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.31</v>
+        <v>12.15</v>
       </c>
       <c r="H6" t="n">
-        <v>30.32</v>
+        <v>41.07</v>
       </c>
       <c r="I6" t="n">
-        <v>7.93</v>
+        <v>25.44</v>
       </c>
       <c r="J6" t="n">
-        <v>10.39</v>
+        <v>5.99</v>
       </c>
       <c r="K6" t="n">
-        <v>11.07</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.73</v>
+        <v>19.96</v>
       </c>
       <c r="C7" t="n">
-        <v>42.16</v>
+        <v>38.23</v>
       </c>
       <c r="D7" t="n">
-        <v>20.75</v>
+        <v>42.43</v>
       </c>
       <c r="E7" t="n">
-        <v>24.31</v>
+        <v>41.57</v>
       </c>
       <c r="F7" t="n">
-        <v>4.31</v>
+        <v>12.15</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>44.47</v>
       </c>
       <c r="I7" t="n">
-        <v>3.61</v>
+        <v>32.92</v>
       </c>
       <c r="J7" t="n">
-        <v>6.08</v>
+        <v>6.44</v>
       </c>
       <c r="K7" t="n">
-        <v>15.38</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.28</v>
+        <v>29.24</v>
       </c>
       <c r="C8" t="n">
-        <v>16.16</v>
+        <v>39.5</v>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>4.69</v>
       </c>
       <c r="E8" t="n">
-        <v>1.69</v>
+        <v>13.15</v>
       </c>
       <c r="F8" t="n">
-        <v>30.32</v>
+        <v>41.07</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>44.47</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.39</v>
+        <v>19.15</v>
       </c>
       <c r="J8" t="n">
-        <v>19.92</v>
+        <v>43.58</v>
       </c>
       <c r="K8" t="n">
-        <v>41.39</v>
+        <v>35.05</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.11</v>
+        <v>26.69</v>
       </c>
       <c r="C9" t="n">
-        <v>38.55</v>
+        <v>45.68</v>
       </c>
       <c r="D9" t="n">
-        <v>17.14</v>
+        <v>14.8</v>
       </c>
       <c r="E9" t="n">
-        <v>20.7</v>
+        <v>26.85</v>
       </c>
       <c r="F9" t="n">
-        <v>7.93</v>
+        <v>25.44</v>
       </c>
       <c r="G9" t="n">
-        <v>3.61</v>
+        <v>32.92</v>
       </c>
       <c r="H9" t="n">
-        <v>22.39</v>
+        <v>19.15</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.47</v>
+        <v>29.69</v>
       </c>
       <c r="K9" t="n">
-        <v>19</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.65</v>
+        <v>22.89</v>
       </c>
       <c r="C10" t="n">
-        <v>36.08</v>
+        <v>42.99</v>
       </c>
       <c r="D10" t="n">
-        <v>14.67</v>
+        <v>40.95</v>
       </c>
       <c r="E10" t="n">
-        <v>18.23</v>
+        <v>42.63</v>
       </c>
       <c r="F10" t="n">
-        <v>10.39</v>
+        <v>5.99</v>
       </c>
       <c r="G10" t="n">
-        <v>6.08</v>
+        <v>6.44</v>
       </c>
       <c r="H10" t="n">
-        <v>19.92</v>
+        <v>43.58</v>
       </c>
       <c r="I10" t="n">
-        <v>2.47</v>
+        <v>29.69</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.46</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.11</v>
+        <v>32.28</v>
       </c>
       <c r="C11" t="n">
-        <v>57.54</v>
+        <v>53.98</v>
       </c>
       <c r="D11" t="n">
-        <v>36.13</v>
+        <v>30.78</v>
       </c>
       <c r="E11" t="n">
-        <v>39.69</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>11.07</v>
+        <v>16.36</v>
       </c>
       <c r="G11" t="n">
-        <v>15.38</v>
+        <v>27.87</v>
       </c>
       <c r="H11" t="n">
-        <v>41.39</v>
+        <v>35.05</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>15.98</v>
       </c>
       <c r="J11" t="n">
-        <v>21.46</v>
+        <v>22.26</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-17.44594554893987</v>
+        <v>-0.8965532480934361</v>
       </c>
       <c r="C2" t="n">
-        <v>-17.44607168198065</v>
+        <v>-11.4871699310636</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-37.55080225159404</v>
+        <v>10.20456352665994</v>
       </c>
       <c r="C3" t="n">
-        <v>-37.55083131154741</v>
+        <v>-30.4016859602989</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-22.41222331875165</v>
+        <v>17.85575981073809</v>
       </c>
       <c r="C4" t="n">
-        <v>-22.40986617568865</v>
+        <v>10.61420727253725</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-24.92503249964642</v>
+        <v>21.04495338740526</v>
       </c>
       <c r="C5" t="n">
-        <v>-24.93169072763693</v>
+        <v>-5.656234607971598</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.689706500092655</v>
+        <v>-19.61167774385229</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.689769833035393</v>
+        <v>4.529191547276679</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.738878055071783</v>
+        <v>-20.47535774478816</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.73888456512256</v>
+        <v>-7.587933577581885</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-26.12940948591248</v>
+        <v>21.35529018167867</v>
       </c>
       <c r="C8" t="n">
-        <v>-26.12346447900298</v>
+        <v>7.489799836143398</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-10.29447735240882</v>
+        <v>3.657639210667198</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.29400876240365</v>
+        <v>14.80793407776877</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-12.03775254696347</v>
+        <v>-21.34862769589908</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.03785014459156</v>
+        <v>-1.204089548734202</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.139547357325481</v>
+        <v>-11.78598968451619</v>
       </c>
       <c r="C11" t="n">
-        <v>3.139530263564291</v>
+        <v>18.89598089192408</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001590251922607422</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001571178436279297</v>
+        <v>34.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3597531318664551</v>
+        <v>22.49</v>
       </c>
       <c r="E2" t="n">
-        <v>1.625259160995483</v>
+        <v>22.49</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1388838291168213</v>
+        <v>17.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03698158264160156</v>
+        <v>27.79</v>
       </c>
       <c r="H2" t="n">
-        <v>1.825675249099731</v>
+        <v>26.02</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38.81</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45.87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34.84</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38.81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34.84</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34.84</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="H10" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.06005308998251361</v>
       </c>
       <c r="C2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7416216216216216</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.411555555555556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1863523898078063</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001590251922607422</v>
+        <v>-0.07494114904326554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.4913362089900414</v>
       </c>
       <c r="C3" t="n">
-        <v>14.585</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3895123839009288</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.285222222222223</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1127306412022412</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001571178436279297</v>
+        <v>0.4696972589373768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.5044051274917167</v>
       </c>
       <c r="C4" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.154566744730679</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.26422222222222</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4278739800529242</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3597531318664551</v>
+        <v>0.1763335409277481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.02060368583358969</v>
       </c>
       <c r="C5" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9733187134502924</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15.89222222222223</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5233643542671315</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.625259160995483</v>
+        <v>0.4326291413154678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.2066251086174606</v>
       </c>
       <c r="C6" t="n">
-        <v>5.420000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5081967213114756</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08868857924748447</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1388838291168213</v>
+        <v>-0.3619953220495739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.04431209376348991</v>
       </c>
       <c r="C7" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.199063231850118</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.50533333333333</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5656142079071395</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.03698158264160156</v>
+        <v>-0.7080749550522916</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.5264663751075677</v>
       </c>
       <c r="C8" t="n">
-        <v>26.54</v>
+        <v>0.2862436480555373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.07802524481017287</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08474333156387076</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1337011062031528</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3455303094444824</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3973312667623786</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0485212500580641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="I3" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.92</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9530075187969925</v>
+        <v>3.86</v>
       </c>
       <c r="E8" t="n">
-        <v>11.08911111111111</v>
+        <v>6.62</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4034092479562351</v>
+        <v>33.83</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>31.37</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.825675249099731</v>
+        <v>17.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>42.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60.32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="H11" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-11.70935608071514</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-11.22524412771249</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-33.64143062565297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-33.68201375969745</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-18.14703944766677</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-18.74041587844481</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-26.28463312093221</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-23.92125352292879</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.822574809218651</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.891235819250544</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.112130420644227</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.124658478836544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-19.89660513808177</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-22.1771009238217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-8.586052426650888</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.908441657826002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4809614511607148</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.423477809602027</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.985586160571751</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.990411472415605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="H6" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="I7" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="G8" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="C10" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="C11" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04779451305711156</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3360661363293282</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07545585459627921</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6548993834838106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.374530877143256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2887871925624113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3764450581048359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2263835184814457</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3742483755186116</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2369533716144208</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3834615379946906</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.127570622502324</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4458336082671691</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1199263448662623</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1055675925952459</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.422683010763602</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4430736916003246</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03876356911890047</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1292548725144899</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2378061718711505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44.74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49.51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="H6" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.74</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>33.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>49.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.289899991951377</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.5518317967963</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-18.29830377982508</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.61131848625352</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-37.3213156289431</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-24.20354481251107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-44.77270732764973</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.444315365477827</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44.1769633975451</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.03828396716615</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42.75416312806358</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.299746087693045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-47.39280229961411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-13.76764917704478</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-7.59615047589693</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-26.46628265794889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50.00865276786509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1102785833051958</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.1516002265038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.54172970485505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002582073211669922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002584457397460938</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002615451812744141</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.094732999801636</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.814965724945068</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2339649200439453</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3034360408782959</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9669239521026611</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01367855072021484</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009511947631835938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.87</v>
+        <v>33.84</v>
       </c>
       <c r="D2" t="n">
-        <v>34.14</v>
+        <v>25.53</v>
       </c>
       <c r="E2" t="n">
-        <v>17.03</v>
+        <v>24.98</v>
       </c>
       <c r="F2" t="n">
-        <v>21.19</v>
+        <v>14.55</v>
       </c>
       <c r="G2" t="n">
-        <v>15.14</v>
+        <v>12.59</v>
       </c>
       <c r="H2" t="n">
-        <v>48.33</v>
+        <v>28.11</v>
       </c>
       <c r="I2" t="n">
-        <v>23.2</v>
+        <v>32.15</v>
       </c>
       <c r="J2" t="n">
-        <v>22.8</v>
+        <v>19.2</v>
       </c>
       <c r="K2" t="n">
-        <v>30.1</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.55</v>
+        <v>33.84</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.33</v>
+        <v>18.09</v>
       </c>
       <c r="E3" t="n">
-        <v>29.93</v>
+        <v>11.13</v>
       </c>
       <c r="F3" t="n">
-        <v>46.34</v>
+        <v>19.6</v>
       </c>
       <c r="G3" t="n">
-        <v>43.05</v>
+        <v>23.65</v>
       </c>
       <c r="H3" t="n">
-        <v>32.74</v>
+        <v>13.78</v>
       </c>
       <c r="I3" t="n">
-        <v>37.73</v>
+        <v>20.93</v>
       </c>
       <c r="J3" t="n">
-        <v>34.01</v>
+        <v>14.84</v>
       </c>
       <c r="K3" t="n">
-        <v>48.33</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.02</v>
+        <v>25.53</v>
       </c>
       <c r="C4" t="n">
-        <v>48.1</v>
+        <v>18.09</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.55</v>
+        <v>19.34</v>
       </c>
       <c r="F4" t="n">
-        <v>35.41</v>
+        <v>17.31</v>
       </c>
       <c r="G4" t="n">
-        <v>26.68</v>
+        <v>12.96</v>
       </c>
       <c r="H4" t="n">
-        <v>3.68</v>
+        <v>4.65</v>
       </c>
       <c r="I4" t="n">
-        <v>14.55</v>
+        <v>7.11</v>
       </c>
       <c r="J4" t="n">
-        <v>33.9</v>
+        <v>11.92</v>
       </c>
       <c r="K4" t="n">
-        <v>29.98</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.33</v>
+        <v>24.98</v>
       </c>
       <c r="C5" t="n">
-        <v>22.05</v>
+        <v>11.13</v>
       </c>
       <c r="D5" t="n">
-        <v>11.02</v>
+        <v>19.34</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>48.33</v>
+        <v>10.53</v>
       </c>
       <c r="G5" t="n">
-        <v>46.64</v>
+        <v>17.84</v>
       </c>
       <c r="H5" t="n">
-        <v>11.86</v>
+        <v>16.98</v>
       </c>
       <c r="I5" t="n">
-        <v>29.62</v>
+        <v>25.07</v>
       </c>
       <c r="J5" t="n">
-        <v>48.33</v>
+        <v>9.15</v>
       </c>
       <c r="K5" t="n">
-        <v>30.97</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.62</v>
+        <v>14.55</v>
       </c>
       <c r="C6" t="n">
-        <v>48.33</v>
+        <v>19.6</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55</v>
+        <v>17.31</v>
       </c>
       <c r="E6" t="n">
-        <v>31.94</v>
+        <v>10.53</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.05</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>44.22</v>
+        <v>17.63</v>
       </c>
       <c r="I6" t="n">
-        <v>18.3</v>
+        <v>24.35</v>
       </c>
       <c r="J6" t="n">
-        <v>3.44</v>
+        <v>6.23</v>
       </c>
       <c r="K6" t="n">
-        <v>18.2</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.19</v>
+        <v>12.59</v>
       </c>
       <c r="C7" t="n">
-        <v>39.29</v>
+        <v>23.65</v>
       </c>
       <c r="D7" t="n">
-        <v>45.29</v>
+        <v>12.96</v>
       </c>
       <c r="E7" t="n">
-        <v>45.83</v>
+        <v>17.84</v>
       </c>
       <c r="F7" t="n">
-        <v>11.39</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>46.71</v>
+        <v>15.63</v>
       </c>
       <c r="I7" t="n">
-        <v>48.33</v>
+        <v>19.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>23.48</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.49</v>
+        <v>28.11</v>
       </c>
       <c r="C8" t="n">
-        <v>45.15</v>
+        <v>13.78</v>
       </c>
       <c r="D8" t="n">
-        <v>3.41</v>
+        <v>4.65</v>
       </c>
       <c r="E8" t="n">
-        <v>16.11</v>
+        <v>16.98</v>
       </c>
       <c r="F8" t="n">
-        <v>48.33</v>
+        <v>17.63</v>
       </c>
       <c r="G8" t="n">
-        <v>37.14</v>
+        <v>15.63</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>18.3</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>38.4</v>
+        <v>11.52</v>
       </c>
       <c r="K8" t="n">
-        <v>39.29</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.94</v>
+        <v>32.15</v>
       </c>
       <c r="C9" t="n">
-        <v>48.33</v>
+        <v>20.93</v>
       </c>
       <c r="D9" t="n">
-        <v>14.66</v>
+        <v>7.11</v>
       </c>
       <c r="E9" t="n">
-        <v>37.59</v>
+        <v>25.07</v>
       </c>
       <c r="F9" t="n">
-        <v>21.48</v>
+        <v>24.35</v>
       </c>
       <c r="G9" t="n">
-        <v>28.54</v>
+        <v>19.75</v>
       </c>
       <c r="H9" t="n">
-        <v>16.49</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>31.74</v>
+        <v>18.71</v>
       </c>
       <c r="K9" t="n">
-        <v>24.66</v>
+        <v>37.73</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.79</v>
+        <v>19.2</v>
       </c>
       <c r="C10" t="n">
-        <v>48.33</v>
+        <v>14.84</v>
       </c>
       <c r="D10" t="n">
-        <v>48.33</v>
+        <v>11.92</v>
       </c>
       <c r="E10" t="n">
-        <v>48.33</v>
+        <v>9.15</v>
       </c>
       <c r="F10" t="n">
-        <v>6.38</v>
+        <v>6.23</v>
       </c>
       <c r="G10" t="n">
-        <v>6.64</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>48.33</v>
+        <v>11.52</v>
       </c>
       <c r="I10" t="n">
-        <v>24.49</v>
+        <v>18.71</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>30.1</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.23</v>
+        <v>22.35</v>
       </c>
       <c r="C11" t="n">
-        <v>48.33</v>
+        <v>25.44</v>
       </c>
       <c r="D11" t="n">
-        <v>46.94</v>
+        <v>31.02</v>
       </c>
       <c r="E11" t="n">
-        <v>32.12</v>
+        <v>14.63</v>
       </c>
       <c r="F11" t="n">
-        <v>20.16</v>
+        <v>14.55</v>
       </c>
       <c r="G11" t="n">
-        <v>48.33</v>
+        <v>23.24</v>
       </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>30.09</v>
       </c>
       <c r="I11" t="n">
-        <v>18.91</v>
+        <v>37.73</v>
       </c>
       <c r="J11" t="n">
-        <v>15.57</v>
+        <v>19.1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-10.13330653234123</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.814541738374891</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.14464063404558</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.51244639055825</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.18668708839639</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.551515652077311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.128135637916249</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.96229953775319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3941801772619912</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.996359778032426</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.267701062634028</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.642513539186571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.93467755408168</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.756024724829775</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.99589185712197</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.583915814896478</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.835362717516884</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.838526539231522</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.278895412627678</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.52319800644569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7416216216216216</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.411555555555556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1863523898078063</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001590251922607422</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14.585</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3895123839009288</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.285222222222223</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1127306412022412</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001571178436279297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.154566744730679</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.26422222222222</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4278739800529242</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3597531318664551</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9733187134502924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.89222222222223</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5233643542671315</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.625259160995483</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5.420000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5081967213114756</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08868857924748447</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1388838291168213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.199063231850118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.50533333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5656142079071395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03698158264160156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9530075187969925</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.08911111111111</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4034092479562351</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.825675249099731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>25.71</v>
+        <v>30.87</v>
       </c>
       <c r="D2" t="n">
-        <v>31.58</v>
+        <v>34.14</v>
       </c>
       <c r="E2" t="n">
-        <v>19.18</v>
+        <v>17.03</v>
       </c>
       <c r="F2" t="n">
-        <v>29.405</v>
+        <v>21.19</v>
       </c>
       <c r="G2" t="n">
-        <v>17.665</v>
+        <v>15.14</v>
       </c>
       <c r="H2" t="n">
-        <v>32.91</v>
+        <v>48.33</v>
       </c>
       <c r="I2" t="n">
-        <v>27.57</v>
+        <v>23.2</v>
       </c>
       <c r="J2" t="n">
-        <v>22.295</v>
+        <v>22.8</v>
       </c>
       <c r="K2" t="n">
-        <v>32.165</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="3">
@@ -5777,31 +8361,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.71</v>
+        <v>20.55</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.215</v>
+        <v>48.33</v>
       </c>
       <c r="E3" t="n">
-        <v>25.99</v>
+        <v>29.93</v>
       </c>
       <c r="F3" t="n">
-        <v>47.335</v>
+        <v>46.34</v>
       </c>
       <c r="G3" t="n">
-        <v>41.17</v>
+        <v>43.05</v>
       </c>
       <c r="H3" t="n">
-        <v>38.945</v>
+        <v>32.74</v>
       </c>
       <c r="I3" t="n">
-        <v>43.03</v>
+        <v>37.73</v>
       </c>
       <c r="J3" t="n">
-        <v>41.17</v>
+        <v>34.01</v>
       </c>
       <c r="K3" t="n">
         <v>48.33</v>
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.58</v>
+        <v>29.02</v>
       </c>
       <c r="C4" t="n">
-        <v>48.215</v>
+        <v>48.1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.285</v>
+        <v>19.55</v>
       </c>
       <c r="F4" t="n">
-        <v>34.98</v>
+        <v>35.41</v>
       </c>
       <c r="G4" t="n">
-        <v>35.985</v>
+        <v>26.68</v>
       </c>
       <c r="H4" t="n">
-        <v>3.545</v>
+        <v>3.68</v>
       </c>
       <c r="I4" t="n">
-        <v>14.605</v>
+        <v>14.55</v>
       </c>
       <c r="J4" t="n">
-        <v>41.11499999999999</v>
+        <v>33.9</v>
       </c>
       <c r="K4" t="n">
-        <v>38.46</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.18</v>
+        <v>21.33</v>
       </c>
       <c r="C5" t="n">
-        <v>25.99</v>
+        <v>22.05</v>
       </c>
       <c r="D5" t="n">
-        <v>15.285</v>
+        <v>11.02</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.135</v>
+        <v>48.33</v>
       </c>
       <c r="G5" t="n">
-        <v>46.235</v>
+        <v>46.64</v>
       </c>
       <c r="H5" t="n">
-        <v>13.985</v>
+        <v>11.86</v>
       </c>
       <c r="I5" t="n">
-        <v>33.605</v>
+        <v>29.62</v>
       </c>
       <c r="J5" t="n">
         <v>48.33</v>
       </c>
       <c r="K5" t="n">
-        <v>31.545</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.405</v>
+        <v>37.62</v>
       </c>
       <c r="C6" t="n">
-        <v>47.335</v>
+        <v>48.33</v>
       </c>
       <c r="D6" t="n">
-        <v>34.98</v>
+        <v>34.55</v>
       </c>
       <c r="E6" t="n">
-        <v>40.135</v>
+        <v>31.94</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.72</v>
+        <v>10.05</v>
       </c>
       <c r="H6" t="n">
-        <v>46.275</v>
+        <v>44.22</v>
       </c>
       <c r="I6" t="n">
-        <v>19.89</v>
+        <v>18.3</v>
       </c>
       <c r="J6" t="n">
-        <v>4.91</v>
+        <v>3.44</v>
       </c>
       <c r="K6" t="n">
-        <v>19.18</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.665</v>
+        <v>20.19</v>
       </c>
       <c r="C7" t="n">
-        <v>41.17</v>
+        <v>39.29</v>
       </c>
       <c r="D7" t="n">
-        <v>35.985</v>
+        <v>45.29</v>
       </c>
       <c r="E7" t="n">
-        <v>46.235</v>
+        <v>45.83</v>
       </c>
       <c r="F7" t="n">
-        <v>10.72</v>
+        <v>11.39</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.925</v>
+        <v>46.71</v>
       </c>
       <c r="I7" t="n">
-        <v>38.435</v>
+        <v>48.33</v>
       </c>
       <c r="J7" t="n">
-        <v>5.02</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>35.905</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.91</v>
+        <v>17.49</v>
       </c>
       <c r="C8" t="n">
-        <v>38.945</v>
+        <v>45.15</v>
       </c>
       <c r="D8" t="n">
-        <v>3.545</v>
+        <v>3.41</v>
       </c>
       <c r="E8" t="n">
-        <v>13.985</v>
+        <v>16.11</v>
       </c>
       <c r="F8" t="n">
-        <v>46.275</v>
+        <v>48.33</v>
       </c>
       <c r="G8" t="n">
-        <v>41.925</v>
+        <v>37.14</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17.395</v>
+        <v>18.3</v>
       </c>
       <c r="J8" t="n">
-        <v>43.36499999999999</v>
+        <v>38.4</v>
       </c>
       <c r="K8" t="n">
-        <v>36.145</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.57</v>
+        <v>31.94</v>
       </c>
       <c r="C9" t="n">
-        <v>43.03</v>
+        <v>48.33</v>
       </c>
       <c r="D9" t="n">
-        <v>14.605</v>
+        <v>14.66</v>
       </c>
       <c r="E9" t="n">
-        <v>33.605</v>
+        <v>37.59</v>
       </c>
       <c r="F9" t="n">
-        <v>19.89</v>
+        <v>21.48</v>
       </c>
       <c r="G9" t="n">
-        <v>38.435</v>
+        <v>28.54</v>
       </c>
       <c r="H9" t="n">
-        <v>17.395</v>
+        <v>16.49</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>28.115</v>
+        <v>31.74</v>
       </c>
       <c r="K9" t="n">
-        <v>21.785</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.295</v>
+        <v>21.79</v>
       </c>
       <c r="C10" t="n">
-        <v>41.17</v>
+        <v>48.33</v>
       </c>
       <c r="D10" t="n">
-        <v>41.11499999999999</v>
+        <v>48.33</v>
       </c>
       <c r="E10" t="n">
         <v>48.33</v>
       </c>
       <c r="F10" t="n">
-        <v>4.91</v>
+        <v>6.38</v>
       </c>
       <c r="G10" t="n">
-        <v>5.02</v>
+        <v>6.64</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36499999999999</v>
+        <v>48.33</v>
       </c>
       <c r="I10" t="n">
-        <v>28.115</v>
+        <v>24.49</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.835</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.165</v>
+        <v>34.23</v>
       </c>
       <c r="C11" t="n">
         <v>48.33</v>
       </c>
       <c r="D11" t="n">
-        <v>38.46</v>
+        <v>46.94</v>
       </c>
       <c r="E11" t="n">
-        <v>31.545</v>
+        <v>32.12</v>
       </c>
       <c r="F11" t="n">
-        <v>19.18</v>
+        <v>20.16</v>
       </c>
       <c r="G11" t="n">
-        <v>35.905</v>
+        <v>48.33</v>
       </c>
       <c r="H11" t="n">
-        <v>36.145</v>
+        <v>33</v>
       </c>
       <c r="I11" t="n">
-        <v>21.785</v>
+        <v>18.91</v>
       </c>
       <c r="J11" t="n">
-        <v>22.835</v>
+        <v>15.57</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>22.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="K3" t="n">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23.24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="K8" t="n">
-        <v>30.09</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="G9" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="K9" t="n">
-        <v>37.73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.44</v>
-      </c>
-      <c r="D11" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="G11" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="H11" t="n">
-        <v>30.09</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37.73</v>
-      </c>
-      <c r="J11" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-10.13330653234123</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.814541738374891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16.14464063404558</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.51244639055825</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>15.18668708839639</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.551515652077311</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.128135637916249</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.96229953775319</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.3941801772619912</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.996359778032426</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.267701062634028</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-2.642513539186571</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16.93467755408168</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.756024724829775</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21.99589185712197</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-3.583915814896478</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.835362717516884</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.838526539231522</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.278895412627678</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17.52319800644569</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>25.99</v>
+        <v>25.19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>31.48</v>
       </c>
       <c r="E2" t="n">
-        <v>4.16</v>
+        <v>19.06</v>
       </c>
       <c r="F2" t="n">
-        <v>12.8</v>
+        <v>28.24</v>
       </c>
       <c r="G2" t="n">
-        <v>8.609999999999999</v>
+        <v>17.48</v>
       </c>
       <c r="H2" t="n">
-        <v>5.14</v>
+        <v>29.08</v>
       </c>
       <c r="I2" t="n">
-        <v>6.13</v>
+        <v>27.22</v>
       </c>
       <c r="J2" t="n">
-        <v>5.39</v>
+        <v>22.29</v>
       </c>
       <c r="K2" t="n">
-        <v>23.77</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.99</v>
+        <v>25.19</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.08</v>
+        <v>48.22</v>
       </c>
       <c r="E3" t="n">
-        <v>21.83</v>
+        <v>25.69</v>
       </c>
       <c r="F3" t="n">
-        <v>38.79</v>
+        <v>47.33</v>
       </c>
       <c r="G3" t="n">
-        <v>34.6</v>
+        <v>41.13</v>
       </c>
       <c r="H3" t="n">
-        <v>20.85</v>
+        <v>38.44</v>
       </c>
       <c r="I3" t="n">
-        <v>32.12</v>
+        <v>42.71</v>
       </c>
       <c r="J3" t="n">
-        <v>31.38</v>
+        <v>40.54</v>
       </c>
       <c r="K3" t="n">
-        <v>49.76</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.91</v>
+        <v>31.48</v>
       </c>
       <c r="C4" t="n">
-        <v>25.08</v>
+        <v>48.22</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.26</v>
+        <v>14.68</v>
       </c>
       <c r="F4" t="n">
-        <v>13.71</v>
+        <v>34.98</v>
       </c>
       <c r="G4" t="n">
-        <v>9.52</v>
+        <v>34.76</v>
       </c>
       <c r="H4" t="n">
-        <v>4.24</v>
+        <v>3.54</v>
       </c>
       <c r="I4" t="n">
-        <v>7.03</v>
+        <v>14.6</v>
       </c>
       <c r="J4" t="n">
-        <v>6.3</v>
+        <v>40.48</v>
       </c>
       <c r="K4" t="n">
-        <v>24.67</v>
+        <v>37.51</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.16</v>
+        <v>19.06</v>
       </c>
       <c r="C5" t="n">
-        <v>21.83</v>
+        <v>25.69</v>
       </c>
       <c r="D5" t="n">
-        <v>3.26</v>
+        <v>14.68</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.96</v>
+        <v>39.29</v>
       </c>
       <c r="G5" t="n">
-        <v>12.77</v>
+        <v>46.23</v>
       </c>
       <c r="H5" t="n">
-        <v>0.98</v>
+        <v>13.82</v>
       </c>
       <c r="I5" t="n">
-        <v>10.29</v>
+        <v>33.37</v>
       </c>
       <c r="J5" t="n">
-        <v>9.56</v>
+        <v>48.33</v>
       </c>
       <c r="K5" t="n">
-        <v>27.93</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.8</v>
+        <v>28.24</v>
       </c>
       <c r="C6" t="n">
-        <v>38.79</v>
+        <v>47.33</v>
       </c>
       <c r="D6" t="n">
-        <v>13.71</v>
+        <v>34.98</v>
       </c>
       <c r="E6" t="n">
-        <v>16.96</v>
+        <v>39.29</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.19</v>
+        <v>10.7</v>
       </c>
       <c r="H6" t="n">
-        <v>17.94</v>
+        <v>46.23</v>
       </c>
       <c r="I6" t="n">
-        <v>6.67</v>
+        <v>19.83</v>
       </c>
       <c r="J6" t="n">
-        <v>7.41</v>
+        <v>4.69</v>
       </c>
       <c r="K6" t="n">
-        <v>10.97</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.609999999999999</v>
+        <v>17.48</v>
       </c>
       <c r="C7" t="n">
-        <v>34.6</v>
+        <v>41.13</v>
       </c>
       <c r="D7" t="n">
-        <v>9.52</v>
+        <v>34.76</v>
       </c>
       <c r="E7" t="n">
-        <v>12.77</v>
+        <v>46.23</v>
       </c>
       <c r="F7" t="n">
-        <v>4.19</v>
+        <v>10.7</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.75</v>
+        <v>41.65</v>
       </c>
       <c r="I7" t="n">
-        <v>2.49</v>
+        <v>37.14</v>
       </c>
       <c r="J7" t="n">
-        <v>3.22</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>15.16</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.14</v>
+        <v>29.08</v>
       </c>
       <c r="C8" t="n">
-        <v>20.85</v>
+        <v>38.44</v>
       </c>
       <c r="D8" t="n">
-        <v>4.24</v>
+        <v>3.54</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98</v>
+        <v>13.82</v>
       </c>
       <c r="F8" t="n">
-        <v>17.94</v>
+        <v>46.23</v>
       </c>
       <c r="G8" t="n">
-        <v>13.75</v>
+        <v>41.65</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.27</v>
+        <v>17.37</v>
       </c>
       <c r="J8" t="n">
-        <v>10.54</v>
+        <v>43.08</v>
       </c>
       <c r="K8" t="n">
-        <v>28.91</v>
+        <v>36.01</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.13</v>
+        <v>27.22</v>
       </c>
       <c r="C9" t="n">
-        <v>32.12</v>
+        <v>42.71</v>
       </c>
       <c r="D9" t="n">
-        <v>7.03</v>
+        <v>14.6</v>
       </c>
       <c r="E9" t="n">
-        <v>10.29</v>
+        <v>33.37</v>
       </c>
       <c r="F9" t="n">
-        <v>6.67</v>
+        <v>19.83</v>
       </c>
       <c r="G9" t="n">
-        <v>2.49</v>
+        <v>37.14</v>
       </c>
       <c r="H9" t="n">
-        <v>11.27</v>
+        <v>17.37</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.73</v>
+        <v>27.88</v>
       </c>
       <c r="K9" t="n">
-        <v>17.64</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.39</v>
+        <v>22.29</v>
       </c>
       <c r="C10" t="n">
-        <v>31.38</v>
+        <v>40.54</v>
       </c>
       <c r="D10" t="n">
-        <v>6.3</v>
+        <v>40.48</v>
       </c>
       <c r="E10" t="n">
-        <v>9.56</v>
+        <v>48.33</v>
       </c>
       <c r="F10" t="n">
-        <v>7.41</v>
+        <v>4.69</v>
       </c>
       <c r="G10" t="n">
-        <v>3.22</v>
+        <v>4.75</v>
       </c>
       <c r="H10" t="n">
-        <v>10.54</v>
+        <v>43.08</v>
       </c>
       <c r="I10" t="n">
-        <v>0.73</v>
+        <v>27.88</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18.37</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.77</v>
+        <v>32.1</v>
       </c>
       <c r="C11" t="n">
-        <v>49.76</v>
+        <v>48.33</v>
       </c>
       <c r="D11" t="n">
-        <v>24.67</v>
+        <v>37.51</v>
       </c>
       <c r="E11" t="n">
-        <v>27.93</v>
+        <v>31.54</v>
       </c>
       <c r="F11" t="n">
-        <v>10.97</v>
+        <v>19.16</v>
       </c>
       <c r="G11" t="n">
-        <v>15.16</v>
+        <v>33.69</v>
       </c>
       <c r="H11" t="n">
-        <v>28.91</v>
+        <v>36.01</v>
       </c>
       <c r="I11" t="n">
-        <v>17.64</v>
+        <v>21.59</v>
       </c>
       <c r="J11" t="n">
-        <v>18.37</v>
+        <v>21.64</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
